--- a/baseBox/matrix/A01.xlsx
+++ b/baseBox/matrix/A01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ygzheng/Documents/playground/goTest/src/pony/config/matrix/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ygzheng/Documents/playground/goTest/src/pony/baseBox/matrix/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF9AE56-0E46-5347-90F5-533B23C568CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD4616E-80F6-784E-93FF-1D8C1412040E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="460" windowWidth="26600" windowHeight="15940" xr2:uid="{82266EF7-9BDD-F946-9294-618F2E25E672}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="142">
   <si>
     <t>商品规划与研发</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>企业愿景、使命、价值观实施现状是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>仓库盘点帐实相符准确度评价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -245,9 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.1.2</t>
-  </si>
-  <si>
     <t>1.1.10</t>
   </si>
   <si>
@@ -275,10 +268,6 @@
     <t>7.5.6</t>
   </si>
   <si>
-    <t>内部诊断需求清单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.2.9</t>
   </si>
   <si>
@@ -404,10 +393,6 @@
   </si>
   <si>
     <t>问题解释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简答</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -563,6 +548,9 @@
   <si>
     <t>物流管理/物料计划分解/仓库运营/转运物流</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经营数据对标分析</t>
   </si>
 </sst>
 </file>
@@ -1048,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC7B509-3A28-A74A-80F5-8BE7ADD78EE4}">
-  <dimension ref="A1:X60"/>
+  <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.2"/>
@@ -1082,18 +1070,18 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C1" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="12"/>
@@ -1140,21 +1128,23 @@
     </row>
     <row r="4" spans="1:24" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
+        <v>6</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
@@ -1170,80 +1160,69 @@
       <c r="W4" s="18"/>
       <c r="X4" s="18"/>
     </row>
-    <row r="5" spans="1:24" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-      <c r="X5" s="18"/>
-    </row>
-    <row r="6" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" spans="1:24" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
@@ -1257,41 +1236,43 @@
     </row>
     <row r="8" spans="1:24" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
+        <v>110</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
     </row>
     <row r="9" spans="1:24" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="22"/>
+        <v>104</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
@@ -1303,44 +1284,44 @@
     </row>
     <row r="10" spans="1:24" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:24" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
@@ -1351,131 +1332,131 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="1:24" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-    </row>
-    <row r="13" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="12" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+    </row>
+    <row r="13" spans="1:24" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:24" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
+        <v>110</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
       <c r="M14" s="18"/>
     </row>
-    <row r="15" spans="1:24" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-    </row>
-    <row r="16" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    <row r="15" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="1:24" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:20" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -1486,21 +1467,21 @@
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
@@ -1511,25 +1492,20 @@
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+        <v>104</v>
+      </c>
+      <c r="E19" s="28"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
@@ -1538,18 +1514,21 @@
     </row>
     <row r="20" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E20" s="28"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
@@ -1558,21 +1537,20 @@
     </row>
     <row r="21" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+        <v>104</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>132</v>
+      </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
@@ -1581,20 +1559,21 @@
     </row>
     <row r="22" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>136</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
@@ -1603,21 +1582,20 @@
     </row>
     <row r="23" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="28"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+        <v>110</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>121</v>
+      </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
@@ -1626,19 +1604,19 @@
     </row>
     <row r="24" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -1646,60 +1624,59 @@
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
     </row>
-    <row r="25" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-    </row>
-    <row r="26" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+    <row r="25" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+    </row>
+    <row r="26" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="28"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
     </row>
     <row r="27" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="18"/>
@@ -1709,68 +1686,78 @@
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+        <v>104</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
     </row>
-    <row r="29" spans="1:20" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="I29" s="18"/>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
     </row>
     <row r="30" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E30" s="28"/>
-      <c r="I30" s="18"/>
+        <v>104</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="J30" s="18"/>
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
@@ -1784,24 +1771,23 @@
     </row>
     <row r="31" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
-      <c r="J31" s="18"/>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
@@ -1813,25 +1799,23 @@
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
     </row>
-    <row r="32" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="4" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
+        <v>110</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
@@ -1843,104 +1827,99 @@
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
     </row>
-    <row r="33" spans="1:20" s="4" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D33" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
+      <c r="E33" s="28"/>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-    </row>
-    <row r="34" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:13" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" s="28"/>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
     </row>
-    <row r="35" spans="1:20" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
     </row>
-    <row r="36" spans="1:20" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>122</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
     </row>
-    <row r="37" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E37" s="21"/>
       <c r="F37" s="19"/>
@@ -1952,20 +1931,22 @@
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="21"/>
+        <v>40</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>115</v>
+      </c>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
@@ -1975,21 +1956,21 @@
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
     </row>
-    <row r="39" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
@@ -2000,296 +1981,294 @@
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
     </row>
-    <row r="40" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
+        <v>43</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
       <c r="K40" s="18"/>
       <c r="L40" s="18"/>
       <c r="M40" s="18"/>
     </row>
-    <row r="41" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>119</v>
+      </c>
       <c r="K41" s="18"/>
       <c r="L41" s="18"/>
       <c r="M41" s="18"/>
     </row>
-    <row r="42" spans="1:20" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
       <c r="M42" s="18"/>
     </row>
-    <row r="43" spans="1:20" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>124</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
       <c r="K43" s="18"/>
       <c r="L43" s="18"/>
       <c r="M43" s="18"/>
     </row>
-    <row r="44" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
+        <v>23</v>
+      </c>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
       <c r="K44" s="18"/>
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
     </row>
-    <row r="45" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
+        <v>37</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
     </row>
-    <row r="46" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C46" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
+        <v>129</v>
+      </c>
+      <c r="I46" s="18"/>
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
     </row>
-    <row r="47" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>133</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E47" s="28"/>
       <c r="I47" s="18"/>
       <c r="K47" s="18"/>
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
     </row>
-    <row r="48" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E48" s="28"/>
-      <c r="I48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
       <c r="K48" s="18"/>
       <c r="L48" s="18"/>
       <c r="M48" s="18"/>
     </row>
     <row r="49" spans="1:16" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>108</v>
+        <v>20</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="E49" s="28"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
       <c r="K49" s="18"/>
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
     </row>
-    <row r="50" spans="1:16" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E50" s="28"/>
-      <c r="I50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-    </row>
-    <row r="51" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
+    <row r="50" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+    </row>
+    <row r="51" spans="1:16" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
     </row>
     <row r="52" spans="1:16" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E52" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
+        <v>24</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="21"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
       <c r="M52" s="18"/>
     </row>
     <row r="53" spans="1:16" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" s="21"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
+        <v>50</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" s="28"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
       <c r="I53" s="19"/>
       <c r="J53" s="19"/>
       <c r="K53" s="18"/>
@@ -2298,16 +2277,16 @@
     </row>
     <row r="54" spans="1:16" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="18"/>
@@ -2321,39 +2300,37 @@
     </row>
     <row r="55" spans="1:16" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="E55" s="28"/>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
       <c r="H55" s="18"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
       <c r="K55" s="18"/>
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
     </row>
     <row r="56" spans="1:16" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>108</v>
+        <v>49</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="E56" s="28"/>
       <c r="F56" s="18"/>
@@ -2363,59 +2340,61 @@
       <c r="L56" s="18"/>
       <c r="M56" s="18"/>
     </row>
-    <row r="57" spans="1:16" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
+    <row r="57" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="17"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+    </row>
+    <row r="58" spans="1:16" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D57" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E57" s="28"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-    </row>
-    <row r="58" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="14"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="14"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
     </row>
     <row r="59" spans="1:16" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D59" s="25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E59" s="21"/>
       <c r="F59" s="19"/>
@@ -2427,29 +2406,6 @@
       <c r="L59" s="18"/>
       <c r="M59" s="18"/>
     </row>
-    <row r="60" spans="1:16" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D60" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E60" s="21"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
